--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364863.366398631</v>
+        <v>2359085.828397905</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8299134.473866295</v>
+        <v>8297954.515085457</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.41325765719749</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>97.89181443307523</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>102.4290392774763</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348900367</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.55567497641739</v>
       </c>
       <c r="E4" t="n">
-        <v>133.6001941467923</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>264.6022506526861</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>293.910080901816</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900367</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707417</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1060,10 +1060,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>63.47452846833902</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>25.13541355698095</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.65557248972621</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>43.01721371098796</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414339</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.58799368618168</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035424</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627306</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603044</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.4754380769611</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1667,7 +1667,7 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277421</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876772</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414245</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806961</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.367374384535</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443512</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.099369849592</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046344</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074585</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258558</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546469</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523196</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762409</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419613</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536806</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982398</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253513</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175983</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3746,19 @@
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>106.2581909707459</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3740388304723</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>109.9667971102783</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
         <v>242.2189017332849</v>
@@ -4040,7 +4040,7 @@
         <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>202.28494139244</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
         <v>296.058962518373</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.6848619852549</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="C2" t="n">
-        <v>301.6848619852549</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>301.6848619852549</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>301.6848619852549</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>288.8308275556367</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>279.708476084044</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445741</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>138.4138119172013</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>497.3961679446631</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="M2" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687146</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579474</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710996</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078517</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637933</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072532</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.670316776051</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="W2" t="n">
-        <v>1098.670316776051</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.670316776051</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="Y2" t="n">
-        <v>702.1796076966518</v>
+        <v>999.0496848552187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245264</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.8779925251273</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567663</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189927</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.550466580656</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.550466580656</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580656</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297054</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851944</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851944</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.4989693204923</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>658.4989693204923</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>658.4989693204923</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>523.5492782631263</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>366.2233434760993</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9692895755449</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>658.4989693204923</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>658.4989693204923</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>658.4989693204923</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>658.4989693204923</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>658.4989693204923</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.46712443824984</v>
+        <v>359.3535813976271</v>
       </c>
       <c r="C5" t="n">
-        <v>64.46712443824984</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="D5" t="n">
-        <v>64.46712443824984</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="E5" t="n">
-        <v>64.46712443824984</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863166</v>
+        <v>49.62067737021503</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703889</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555677</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>1061.633919651424</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1587.45680904728</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>2027.496409939609</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851944</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137466</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>2086.544013137466</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="T5" t="n">
-        <v>2086.544013137466</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="U5" t="n">
-        <v>1830.791283572065</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.684474275583</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="W5" t="n">
-        <v>1117.685439243871</v>
+        <v>1145.296895543969</v>
       </c>
       <c r="X5" t="n">
-        <v>728.2328341769277</v>
+        <v>755.844290477026</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.7421250975288</v>
+        <v>359.3535813976271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251273</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992653</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975785</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>1371.618859893435</v>
+        <v>861.404254956299</v>
       </c>
       <c r="N6" t="n">
-        <v>1718.915558135547</v>
+        <v>1118.128143219265</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135547</v>
+        <v>1619.294926214715</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851944</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851944</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>644.1030239252708</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="C7" t="n">
-        <v>644.1030239252708</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="D7" t="n">
-        <v>488.4699108277856</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E7" t="n">
-        <v>332.9110986869881</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F7" t="n">
-        <v>175.585163899961</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G7" t="n">
-        <v>175.585163899961</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H7" t="n">
-        <v>175.585163899961</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703889</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>644.1030239252708</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="W7" t="n">
-        <v>644.1030239252708</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="X7" t="n">
-        <v>644.1030239252708</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.1030239252708</v>
+        <v>226.5097091700056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.664015254672</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>1197.664015254672</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>812.2228864713397</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>409.6393615878843</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>396.7853271582661</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.649470045468</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1598.158760966069</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.1827088106572</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>521.9775908766464</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>366.3444777791613</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.3907275019585</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474694</v>
+        <v>731.435776546391</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784262</v>
+        <v>423.7929329501239</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955923</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707835</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3043.74629057327</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2915.186369419875</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2754.374321141661</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2754.374321141661</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2478.315967397137</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551001</v>
+        <v>493.084366955101</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082775</v>
+        <v>417.8199303082785</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979816</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443726</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445337</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311674</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798498</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874321</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852108</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553822</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592138</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.069506034397</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>931.4373282580788</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3080.223619471472</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2951.663698318077</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2790.851650039864</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2543.685522030571</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2543.685522030571</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.623570458606</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.462151279139</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469763</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924378</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.722613466195</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,13 +5923,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924227</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229987</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678962</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>662.7810101642746</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.152663612377</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386531</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023993</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645895</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.34602550699</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.990636856185</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
-        <v>1789.768608066744</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1789.768608066744</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2195.389976783142</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6616,7 +6616,7 @@
         <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144932</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267684</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304553</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193355</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.98645572283</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2356.288247000678</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2796.327847893006</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3144.515340024528</v>
+        <v>3065.032496333758</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152276</v>
+        <v>3249.878056474707</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281053</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304553</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590217</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229148</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233334</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804397</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913165</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806378</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304553</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304553</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>233.4810487454318</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5053083667872</v>
+        <v>397.6086886192316</v>
       </c>
       <c r="M34" t="n">
-        <v>609.2873943454367</v>
+        <v>627.5238173231628</v>
       </c>
       <c r="N34" t="n">
-        <v>900.9675360170315</v>
+        <v>810.7134513543721</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964898</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381862</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392299</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642278</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003233</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569371</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279036</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756985</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937872</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524192</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>973.7913173233209</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.61874097051</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1397.884491463574</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1109.884614670375</v>
+        <v>756.4414835758394</v>
       </c>
       <c r="E41" t="n">
-        <v>804.7423417770524</v>
+        <v>649.1099775447826</v>
       </c>
       <c r="F41" t="n">
-        <v>485.2891552971632</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="G41" t="n">
-        <v>169.5676517752997</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857849</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781039</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.672234691774</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C43" t="n">
         <v>402.8165060906085</v>
@@ -7561,7 +7561,7 @@
         <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,7 +7576,7 @@
         <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822772</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1586.170216899326</v>
+        <v>1409.247912944791</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.435967392389</v>
+        <v>1113.513663437855</v>
       </c>
       <c r="D44" t="n">
         <v>1002.43609059919</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.82473168651</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.159174380161</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.601391338582</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.273167709855</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.223710620589</v>
+        <v>1712.301406666055</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7807,10 +7807,10 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529107</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022401</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
         <v>786.9927227160337</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>216.5843692742441</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7988,10 +7988,10 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>262.2711322421154</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.3361259516861</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>239.6472470098787</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107134</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507702</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>248.3221713947995</v>
+        <v>156.4260707336245</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.521353762298</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N6" t="n">
-        <v>436.1768585532699</v>
+        <v>344.6891717056471</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>468.0425993879824</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,10 +8532,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>116.7148101947787</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,25 +9243,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488197</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,10 +9495,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>433.2773539239171</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>301.854937525337</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.2815038024232</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>576.0417294606771</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,16 +11376,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000176</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414334</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.269151347861829</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749094</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38170695708239</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>195.8326591936431</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>118.00134162847</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149888</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>86.80629815360183</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>724731.4928006431</v>
+        <v>724129.9451868827</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>724731.4928006431</v>
+        <v>724129.9451868827</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686765.4644489426</v>
+        <v>686765.4644489425</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686765.4644489426</v>
+        <v>686765.4644489425</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>729104.0805484046</v>
+        <v>729104.0805484047</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>729104.0805484047</v>
+        <v>729104.0805484046</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>689647.3934389375</v>
+        <v>689647.3934389376</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>559029.7520894057</v>
+      </c>
+      <c r="C2" t="n">
+        <v>559029.7520894055</v>
+      </c>
+      <c r="D2" t="n">
         <v>559029.752089406</v>
-      </c>
-      <c r="C2" t="n">
-        <v>559029.752089406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>559029.7520894059</v>
       </c>
       <c r="E2" t="n">
         <v>525375.9803180384</v>
       </c>
       <c r="F2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180385</v>
       </c>
       <c r="G2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="H2" t="n">
+        <v>559029.7520894066</v>
+      </c>
+      <c r="I2" t="n">
+        <v>559029.7520894065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>559029.7520894072</v>
+      </c>
+      <c r="K2" t="n">
+        <v>559029.7520894071</v>
+      </c>
+      <c r="L2" t="n">
+        <v>559029.7520894057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>559029.7520894065</v>
+      </c>
+      <c r="N2" t="n">
         <v>559029.7520894062</v>
       </c>
-      <c r="I2" t="n">
-        <v>559029.7520894064</v>
-      </c>
-      <c r="J2" t="n">
-        <v>559029.7520894068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>559029.7520894069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>559029.7520894061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>559029.7520894064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>559029.7520894064</v>
-      </c>
       <c r="O2" t="n">
-        <v>527666.7443870092</v>
+        <v>527666.7443870091</v>
       </c>
       <c r="P2" t="n">
-        <v>527666.7443870093</v>
+        <v>527666.7443870091</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.297134351</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602626</v>
+        <v>26460.41160941825</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481252</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015687</v>
+        <v>18983.55983015681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249331</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249331</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>123047.6773561512</v>
+        <v>123047.6773561513</v>
       </c>
       <c r="F4" t="n">
-        <v>123047.6773561512</v>
+        <v>123047.6773561513</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
         <v>147651.9979996332</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,10 +26454,10 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
+        <v>124722.2932551426</v>
+      </c>
+      <c r="P4" t="n">
         <v>124722.2932551427</v>
-      </c>
-      <c r="P4" t="n">
-        <v>124722.2932551426</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26494,10 +26494,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391949</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.2134644677</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123086.3469419723</v>
+        <v>126836.2451425066</v>
       </c>
       <c r="C6" t="n">
-        <v>301081.6440763234</v>
+        <v>296485.2510190564</v>
       </c>
       <c r="D6" t="n">
-        <v>293482.1608620477</v>
+        <v>285745.8716386559</v>
       </c>
       <c r="E6" t="n">
-        <v>216763.0823152659</v>
+        <v>216654.5217611646</v>
       </c>
       <c r="F6" t="n">
-        <v>347216.013452978</v>
+        <v>347107.4528988769</v>
       </c>
       <c r="G6" t="n">
-        <v>324113.028901239</v>
+        <v>324113.0289012392</v>
       </c>
       <c r="H6" t="n">
-        <v>353207.9847742534</v>
+        <v>353207.9847742537</v>
       </c>
       <c r="I6" t="n">
-        <v>353207.9847742535</v>
+        <v>353207.9847742536</v>
       </c>
       <c r="J6" t="n">
-        <v>125122.3414245042</v>
+        <v>131638.6265790781</v>
       </c>
       <c r="K6" t="n">
         <v>346968.2163714712</v>
       </c>
       <c r="L6" t="n">
-        <v>308073.8694388821</v>
+        <v>304025.0322284093</v>
       </c>
       <c r="M6" t="n">
-        <v>310476.7078398851</v>
+        <v>309425.0128286969</v>
       </c>
       <c r="N6" t="n">
-        <v>353207.9847742535</v>
+        <v>353207.9847742534</v>
       </c>
       <c r="O6" t="n">
-        <v>328640.483519159</v>
+        <v>328539.3125265705</v>
       </c>
       <c r="P6" t="n">
-        <v>347624.0433493159</v>
+        <v>347522.8723567273</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P2" t="n">
         <v>96.4668394702319</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288069</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.40725419351566</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902025</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769608</v>
+        <v>23.72944978769601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630898</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559199</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455241</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630898</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8304888249012</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>222.950405496099</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>31.15233105165356</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019407694</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>81.521106990093</v>
       </c>
       <c r="E4" t="n">
-        <v>20.40302987259722</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.8875476015968</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>95.33366558028268</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019407694</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2637886710704</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>199.845023259045</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>383.8957143998959</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.2253680817969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7104901066887</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901135</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599436</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,19 +29545,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620214016</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.7580494816155</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539248</v>
+        <v>44.0641922885527</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465268536</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30402,23 +30402,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.636002634528452</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693058</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="44">
@@ -30879,13 +30879,13 @@
         <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>36.24905561693053</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
         <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N46" t="n">
         <v>96.4668394702319</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>98.90453133189799</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>113.1526409043313</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>530.9490039023742</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>152.563882190564</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129861</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>98.02072415387428</v>
+        <v>6.124623492699338</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N6" t="n">
-        <v>350.8047456991032</v>
+        <v>259.3170588514805</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>314.7944296574907</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>24.02725130588985</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215736</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,10 +36215,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>346.1939891046024</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453562</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529633</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101028</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>449.258967987774</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.2933506465092</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050163</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.729082098836</v>
+        <v>649.1725445714753</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.5742837087279</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.4707364926746</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923088</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440509</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>232.2375037413447</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>193.2706241897642</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>230.673407491883</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640773</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>483.6546074113651</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832362</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918894</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
@@ -37956,7 +37956,7 @@
         <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,13 +38175,13 @@
         <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
-        <v>118.9107133037405</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
